--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24703"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssss\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE0609B-359E-486F-A144-4EAF35A690C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9C690D-7ED2-4ECE-862F-52B03A5596FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{9FB0A0DE-274F-4FAD-A09C-E1958604F425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>body</t>
   </si>
@@ -39,6 +48,9 @@
     <t>Why is Java a platform independent language?</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>What is an Optional class?</t>
   </si>
   <si>
@@ -81,14 +93,59 @@
     <t>Java Medium Question $$$$$$$$$$$</t>
   </si>
   <si>
-    <t>SE</t>
+    <t>the final variable is used to restrict the user from updating it. If we initialize the final variable, we can't change its value</t>
+  </si>
+  <si>
+    <t>Compiletime Error because of final variable can't be update</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Compiletime error. Because final method can't be override</t>
+  </si>
+  <si>
+    <t>The interface is a blueprint for a class that has static constants and abstract methods. It can be used to achieve full abstraction and multiple inheritance. It is a mechanism to achieve abstraction. There can be only abstract methods in the Java interface, not method body. It is used to achieve abstraction and multiple inheritance in Java.</t>
+  </si>
+  <si>
+    <t>Exception Handling is a mechanism that is used to handle runtime errors</t>
+  </si>
+  <si>
+    <t>a equals b</t>
+  </si>
+  <si>
+    <t>Garbage collection is a process of reclaiming the unused runtime objects. It is performed for memory management.</t>
+  </si>
+  <si>
+    <t>Serialization in Java is a mechanism of writing the state of an object into a byte stream. It is used primarily in Hibernate, RMI, JPA, EJB and JMS technologies.</t>
+  </si>
+  <si>
+    <t>Java Socket programming is used for communication between the applications running on different JRE. Java Socket programming can be connection-oriented or connectionless. Socket and ServerSocket classes are used for connection-oriented socket programming and DatagramSocket, and DatagramPacket classes are used for connectionless socket programming.</t>
+  </si>
+  <si>
+    <t>A socket is simply an endpoint for communications between the machines. It provides the connection mechanism to connect the two computers using TCP. The Socket class can be used to create a socket.</t>
+  </si>
+  <si>
+    <t>Reflection is the process of examining or modifying the runtime behavior of a class at runtime. The java.lang.Class class provides various methods that can be used to get metadata, examine and change the runtime behavior of a class.</t>
+  </si>
+  <si>
+    <t>What is the purpose of wait() method in Java?</t>
+  </si>
+  <si>
+    <t>What are the states in the lifecycle of a Thread?</t>
+  </si>
+  <si>
+    <t>What does join() method?</t>
+  </si>
+  <si>
+    <t>What is the deadlock?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +161,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,13 +184,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0EB5BB-F45E-4A76-B100-432EBE7796B3}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,169 +581,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25.5">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25.5">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25.5">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="38.25">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>body</t>
   </si>
@@ -25,10 +25,17 @@
     <t>answer_line</t>
   </si>
   <si>
+    <t>answer</t>
+  </si>
+  <si>
     <t>Why is Java a platform independent language?</t>
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>30Javatpoint
+Javatpoint1020</t>
   </si>
   <si>
     <t>What is an Optional class?</t>
@@ -133,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -146,9 +153,15 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -211,28 +224,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +474,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="82.0"/>
-    <col customWidth="1" min="2" max="26" width="7.63"/>
+    <col customWidth="1" min="2" max="3" width="7.63"/>
+    <col customWidth="1" min="4" max="4" width="12.38"/>
+    <col customWidth="1" min="5" max="5" width="45.63"/>
+    <col customWidth="1" min="6" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,13 +493,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -482,13 +510,16 @@
       <c r="D2" s="4">
         <v>15.0</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>3.0</v>
@@ -496,13 +527,16 @@
       <c r="D3" s="4">
         <v>10.0</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -510,13 +544,16 @@
       <c r="D4" s="4">
         <v>15.0</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -524,13 +561,16 @@
       <c r="D5" s="4">
         <v>25.0</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>3.0</v>
@@ -538,13 +578,16 @@
       <c r="D6" s="4">
         <v>13.0</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
@@ -552,13 +595,16 @@
       <c r="D7" s="4">
         <v>10.0</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>3.0</v>
@@ -566,13 +612,16 @@
       <c r="D8" s="4">
         <v>10.0</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>1.0</v>
@@ -580,13 +629,16 @@
       <c r="D9" s="4">
         <v>12.0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>2.0</v>
@@ -594,13 +646,16 @@
       <c r="D10" s="4">
         <v>20.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>1.0</v>
@@ -608,13 +663,16 @@
       <c r="D11" s="4">
         <v>21.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>3.0</v>
@@ -622,27 +680,33 @@
       <c r="D12" s="4">
         <v>18.0</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>1.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>5.0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <v>2.0</v>
@@ -650,13 +714,16 @@
       <c r="D14" s="4">
         <v>15.0</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>3.0</v>
@@ -664,13 +731,16 @@
       <c r="D15" s="4">
         <v>10.0</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
         <v>2.0</v>
@@ -678,13 +748,16 @@
       <c r="D16" s="4">
         <v>10.0</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
+      <c r="A17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>1.0</v>
@@ -692,13 +765,16 @@
       <c r="D17" s="4">
         <v>12.0</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>21</v>
+      <c r="A18" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3">
         <v>1.0</v>
@@ -706,13 +782,16 @@
       <c r="D18" s="4">
         <v>13.0</v>
       </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
+      <c r="A19" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>1.0</v>
@@ -720,13 +799,16 @@
       <c r="D19" s="4">
         <v>14.0</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>2.0</v>
@@ -734,13 +816,16 @@
       <c r="D20" s="4">
         <v>15.0</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
+      <c r="A21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3">
         <v>2.0</v>
@@ -748,13 +833,16 @@
       <c r="D21" s="4">
         <v>25.0</v>
       </c>
+      <c r="E21" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
+      <c r="A22" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>2.0</v>
@@ -762,13 +850,16 @@
       <c r="D22" s="4">
         <v>10.0</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
+      <c r="A23" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3">
         <v>2.0</v>
@@ -776,13 +867,16 @@
       <c r="D23" s="4">
         <v>30.0</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
+      <c r="A24" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3">
         <v>3.0</v>
@@ -790,13 +884,16 @@
       <c r="D24" s="4">
         <v>25.0</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>29</v>
+      <c r="A25" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>3.0</v>
@@ -804,13 +901,16 @@
       <c r="D25" s="4">
         <v>10.0</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
+      <c r="A26" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <v>3.0</v>
@@ -818,13 +918,16 @@
       <c r="D26" s="4">
         <v>15.0</v>
       </c>
+      <c r="E26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
+      <c r="A27" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>3.0</v>
@@ -832,13 +935,16 @@
       <c r="D27" s="4">
         <v>9.0</v>
       </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>32</v>
+      <c r="A28" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4">
         <v>1.0</v>
@@ -846,13 +952,16 @@
       <c r="D28" s="4">
         <v>15.0</v>
       </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>33</v>
+      <c r="A29" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
         <v>3.0</v>
@@ -860,13 +969,16 @@
       <c r="D29" s="4">
         <v>16.0</v>
       </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
+      <c r="A30" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3">
         <v>1.0</v>
@@ -874,19 +986,25 @@
       <c r="D30" s="4">
         <v>18.0</v>
       </c>
+      <c r="E30" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>35</v>
+      <c r="A31" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3">
         <v>3.0</v>
       </c>
       <c r="D31" s="4">
         <v>20.0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
